--- a/Mifos Automation Excels/Client/2665-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-SP-FLAT-ON-15JAN-AccCL1stFEB-WAIVECHARGE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2665-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-SP-FLAT-ON-15JAN-AccCL1stFEB-WAIVECHARGE-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>waivecharge</t>
   </si>
   <si>
-    <t>clickonwaivechargeconfirm</t>
-  </si>
-  <si>
     <t>confirm</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Accounting has been closed for this branch as of `2014-02-01`.</t>
+  </si>
+  <si>
+    <t>clickonwaivechargeconfirm2</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -690,23 +690,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="9">
         <v>41654</v>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,18 +892,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
